--- a/Chandrashekaran-annotations/CTAS_Q1_2008.xlsx
+++ b/Chandrashekaran-annotations/CTAS_Q1_2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4242D9-0038-4140-963B-A2EB9640A46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC8447-81ED-4053-979E-3A8AA8384158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,6 +796,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -810,6 +828,24 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -824,6 +860,24 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -838,6 +892,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -852,6 +924,24 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -866,6 +956,24 @@
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -880,6 +988,24 @@
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -894,6 +1020,24 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -908,6 +1052,24 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -922,6 +1084,24 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -936,6 +1116,24 @@
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -950,6 +1148,24 @@
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -964,6 +1180,24 @@
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -978,6 +1212,24 @@
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -992,8 +1244,26 @@
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1006,8 +1276,26 @@
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1020,8 +1308,26 @@
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1034,8 +1340,26 @@
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1048,8 +1372,26 @@
       <c r="D20" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1062,8 +1404,26 @@
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1076,8 +1436,26 @@
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1090,8 +1468,26 @@
       <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1104,8 +1500,26 @@
       <c r="D24" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1118,8 +1532,26 @@
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1132,8 +1564,26 @@
       <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -1146,8 +1596,26 @@
       <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -1160,8 +1628,26 @@
       <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1174,8 +1660,26 @@
       <c r="D29" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1188,8 +1692,26 @@
       <c r="D30" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -1202,8 +1724,26 @@
       <c r="D31" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1216,8 +1756,26 @@
       <c r="D32" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -1230,8 +1788,26 @@
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -1244,8 +1820,26 @@
       <c r="D34" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -1258,8 +1852,26 @@
       <c r="D35" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -1272,8 +1884,26 @@
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -1286,8 +1916,26 @@
       <c r="D37" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
@@ -1300,8 +1948,26 @@
       <c r="D38" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>87</v>
       </c>
@@ -1314,8 +1980,26 @@
       <c r="D39" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -1328,8 +2012,26 @@
       <c r="D40" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -1342,8 +2044,26 @@
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -1356,8 +2076,26 @@
       <c r="D42" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -1370,8 +2108,26 @@
       <c r="D43" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -1384,8 +2140,26 @@
       <c r="D44" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -1398,8 +2172,26 @@
       <c r="D45" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>102</v>
       </c>
@@ -1412,8 +2204,26 @@
       <c r="D46" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -1426,8 +2236,26 @@
       <c r="D47" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -1440,8 +2268,26 @@
       <c r="D48" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -1454,8 +2300,26 @@
       <c r="D49" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
@@ -1468,8 +2332,26 @@
       <c r="D50" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>80</v>
       </c>
@@ -1481,6 +2363,24 @@
       </c>
       <c r="D51" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekaran-annotations/CTAS_Q1_2008.xlsx
+++ b/Chandrashekaran-annotations/CTAS_Q1_2008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC8447-81ED-4053-979E-3A8AA8384158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845330B-0600-49DC-B6BD-A3BBF86E2ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,8 +732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
